--- a/biology/Botanique/Hymenaea_verrucosa/Hymenaea_verrucosa.xlsx
+++ b/biology/Botanique/Hymenaea_verrucosa/Hymenaea_verrucosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenaea verrucosa est une espèce de plantes à fleurs de la famille des Fabaceae (légumineuses). Il appartient à la sous-famille des Caesalpinioideae.
-C'est un grand arbre originaire des régions tropicales d'Afrique orientale et qui est cultivé dans de nombreuses régions du monde[2]. L'espèce est actuellement considérée comme faisant partie du genre Hymenaea, mais certains auteurs l'isolent dans un genre monospécifique, Trachylobium, sous le nom Trachylobium verrucosum[3].
+C'est un grand arbre originaire des régions tropicales d'Afrique orientale et qui est cultivé dans de nombreuses régions du monde. L'espèce est actuellement considérée comme faisant partie du genre Hymenaea, mais certains auteurs l'isolent dans un genre monospécifique, Trachylobium, sous le nom Trachylobium verrucosum.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trachylobium hornemannianum Hayne
 Trachylobium verrucosum Hayne</t>
